--- a/Take Home/Tables/1_MSPE All Criteria_a110.95_T200.xlsx
+++ b/Take Home/Tables/1_MSPE All Criteria_a110.95_T200.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.1401</v>
+        <v>1.992</v>
       </c>
       <c r="C2" t="n">
-        <v>2.075</v>
+        <v>2.0391</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1718</v>
+        <v>2.0936</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.1402</v>
+        <v>1.9911</v>
       </c>
       <c r="C3" t="n">
-        <v>2.075</v>
+        <v>2.039</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1718</v>
+        <v>2.0942</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.1214</v>
+        <v>1.9819</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0588</v>
+        <v>2.0258</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1634</v>
+        <v>2.0913</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.1236</v>
+        <v>1.9828</v>
       </c>
       <c r="C5" t="n">
-        <v>2.06</v>
+        <v>2.0269</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1653</v>
+        <v>2.0905</v>
       </c>
     </row>
   </sheetData>
